--- a/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>别名</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>//ul[@class='menu-box']//li[contains(text(),'月票收费明细')]</t>
+  </si>
+  <si>
+    <t>储值扣费明细</t>
+  </si>
+  <si>
+    <t>//ul[@class='menu-box']//li[contains(text(),'储值扣费明细')]</t>
   </si>
   <si>
     <t>开通对内月票</t>
@@ -130,6 +136,12 @@
   </si>
   <si>
     <t>//form[@class='form-inline']//div[text()='购买时间']//following-sibling::*[1]</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>//i[@class='el-input__icon el-range__icon el-icon-time']</t>
   </si>
   <si>
     <t>最近三个月</t>
@@ -240,7 +252,7 @@
     <t>检查列表的文本</t>
   </si>
   <si>
-    <t>//div[@id='monthTicketBillTable' or @id='monthTicketBillDetailTable']</t>
+    <t>//div[@id='monthTicketBillTable' or @id='monthTicketBillDetailTable' or @id='storeValueChargeRecordTable']</t>
   </si>
 </sst>
 </file>
@@ -248,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,42 +288,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,11 +309,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,16 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +399,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,31 +425,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +446,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +524,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +578,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,145 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,11 +655,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,26 +696,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +708,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,32 +742,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16385"/>
+  <dimension ref="A1:C16387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -1324,12 +1336,12 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1340,7 +1352,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1539,29 +1551,29 @@
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1581,7 +1593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:3">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:3">
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -1670,18 +1682,38 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" customHeight="1"/>
-    <row r="39" s="2" customFormat="1" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="40" s="2" customFormat="1" customHeight="1"/>
     <row r="41" s="2" customFormat="1" customHeight="1"/>
     <row r="42" s="2" customFormat="1" customHeight="1"/>
@@ -18028,6 +18060,8 @@
     <row r="16383" s="2" customFormat="1" customHeight="1"/>
     <row r="16384" s="2" customFormat="1" customHeight="1"/>
     <row r="16385" s="2" customFormat="1" customHeight="1"/>
+    <row r="16386" s="2" customFormat="1" customHeight="1"/>
+    <row r="16387" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>别名</t>
   </si>
@@ -141,13 +141,13 @@
     <t>操作时间</t>
   </si>
   <si>
-    <t>//i[@class='el-input__icon el-range__icon el-icon-time']</t>
+    <t>//form[@class='form-inline']/div[1]//i[@class='el-input__icon el-range__icon el-icon-time']</t>
   </si>
   <si>
     <t>最近三个月</t>
   </si>
   <si>
-    <t>//button[contains(text(),'最近三个月')]</t>
+    <t>//body/div[2]//button[contains(text(),'最近三个月')]</t>
   </si>
   <si>
     <t>多项筛选</t>
@@ -254,16 +254,22 @@
   <si>
     <t>//div[@id='monthTicketBillTable' or @id='monthTicketBillDetailTable' or @id='storeValueChargeRecordTable']</t>
   </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,8 +293,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,14 +332,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +369,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -330,9 +398,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,85 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,7 +452,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,109 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,25 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,25 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +657,48 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,27 +735,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,32 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,137 +778,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +928,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:C16387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -1714,7 +1723,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="41" s="2" customFormat="1" customHeight="1"/>
     <row r="42" s="2" customFormat="1" customHeight="1"/>
     <row r="43" s="2" customFormat="1" customHeight="1"/>

--- a/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
@@ -39,7 +39,7 @@
     <t>月票订单</t>
   </si>
   <si>
-    <t>//ul[@role='menubar']//span[contains(text(),'月票订单')]</t>
+    <t>//ul[@role='menubar']//span[contains(text(),'开通月票')]</t>
   </si>
   <si>
     <t>月票收费明细</t>
@@ -57,13 +57,13 @@
     <t>开通对内月票</t>
   </si>
   <si>
-    <t>//*[@id="app"]//a[contains(text(), "开通对内月票")]</t>
+    <t>//*[@id="app"]//a[contains(text(), "开通本地月票")]</t>
   </si>
   <si>
     <t>月票名称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'月票名称')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'月票类型名称')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>车主姓名</t>
@@ -159,7 +159,7 @@
     <t>搜索框</t>
   </si>
   <si>
-    <t>//input[@placeholder='车牌号码'or @placeholder='车牌号']</t>
+    <t>//input[@placeholder='请输入内容'or @placeholder='车牌号']</t>
   </si>
   <si>
     <t>搜索按钮</t>
@@ -216,7 +216,7 @@
     <t>导入</t>
   </si>
   <si>
-    <t>//*[@id="app"]//a[contains(text(), "导入")]</t>
+    <t>//*[@id="app"]//a[contains(text(), "批量开通")]</t>
   </si>
   <si>
     <t>选择文件</t>
@@ -266,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -293,29 +293,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -332,53 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,8 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +346,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -422,9 +414,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +452,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,13 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,61 +494,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,37 +584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +615,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,18 +687,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +701,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,28 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +778,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,9 +928,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:C16387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -1724,13 +1721,13 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>80</v>
       </c>
     </row>

--- a/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketBillPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>别名</t>
   </si>
@@ -36,7 +36,7 @@
     <t>//nav[@class='menu-box']//a[contains(text(), "车场运营")]</t>
   </si>
   <si>
-    <t>月票订单</t>
+    <t>开通月票</t>
   </si>
   <si>
     <t>//ul[@role='menubar']//span[contains(text(),'开通月票')]</t>
@@ -54,7 +54,7 @@
     <t>//ul[@class='menu-box']//li[contains(text(),'储值扣费明细')]</t>
   </si>
   <si>
-    <t>开通对内月票</t>
+    <t>开通本地月票</t>
   </si>
   <si>
     <t>//*[@id="app"]//a[contains(text(), "开通本地月票")]</t>
@@ -213,28 +213,46 @@
     <t>//ul[@id='tableTree']</t>
   </si>
   <si>
-    <t>导入</t>
+    <t>批量开通</t>
   </si>
   <si>
     <t>//*[@id="app"]//a[contains(text(), "批量开通")]</t>
   </si>
   <si>
+    <t>导入文件选择</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//span[text()='导入文件：']/following-sibling::*[1]//input[@disabled='disabled']</t>
+  </si>
+  <si>
     <t>选择文件</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[text()='选择文件']/following-sibling::*[1]/input</t>
+    <t>//input[@id='renewBatchFileInput' or @id='batchRefundFileInput']</t>
   </si>
   <si>
     <t>导入提示界面</t>
   </si>
   <si>
-    <t>//div[@class='modal-body']</t>
+    <t>//div[@class='import-file-result']</t>
+  </si>
+  <si>
+    <t>旧版导入提示界面</t>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item__content']/span</t>
   </si>
   <si>
     <t>关闭-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'关闭')]</t>
+    <t>//*[@id="app"]//span[contains(text(),'关 闭')]</t>
+  </si>
+  <si>
+    <t>旧版关闭-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']/button[contains(text(),'关闭')]</t>
   </si>
   <si>
     <t>批量续费</t>
@@ -260,6 +278,18 @@
   <si>
     <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
   </si>
+  <si>
+    <t>导入文件</t>
+  </si>
+  <si>
+    <t>//span[text()='导入文件']</t>
+  </si>
+  <si>
+    <t>导入-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='import-file-wrap']//span[text()='导入']</t>
+  </si>
 </sst>
 </file>
 
@@ -268,8 +298,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -294,29 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,15 +339,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -355,14 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,22 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +409,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,6 +433,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +530,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +566,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,19 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,55 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,61 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,6 +702,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,22 +760,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,21 +788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +808,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +958,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16387"/>
+  <dimension ref="A1:C16389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -1710,32 +1743,82 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" customHeight="1"/>
-    <row r="42" s="2" customFormat="1" customHeight="1"/>
-    <row r="43" s="2" customFormat="1" customHeight="1"/>
-    <row r="44" s="2" customFormat="1" customHeight="1"/>
-    <row r="45" s="2" customFormat="1" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="46" s="2" customFormat="1" customHeight="1"/>
     <row r="47" s="2" customFormat="1" customHeight="1"/>
     <row r="48" s="2" customFormat="1" customHeight="1"/>
@@ -18078,6 +18161,8 @@
     <row r="16385" s="2" customFormat="1" customHeight="1"/>
     <row r="16386" s="2" customFormat="1" customHeight="1"/>
     <row r="16387" s="2" customFormat="1" customHeight="1"/>
+    <row r="16388" s="2" customFormat="1" customHeight="1"/>
+    <row r="16389" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
